--- a/jiu_zhi_gan_lan/output/result1.xlsx
+++ b/jiu_zhi_gan_lan/output/result1.xlsx
@@ -510,31 +510,31 @@
         <v>93.33333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>179.4543424065843</v>
+        <v>179.357337334074</v>
       </c>
       <c r="E2" t="n">
-        <v>1487.60528153811</v>
+        <v>1682.589939619691</v>
       </c>
       <c r="F2" t="n">
-        <v>155.3561401758275</v>
+        <v>180.7897931618655</v>
       </c>
       <c r="G2" t="n">
         <v>1800</v>
       </c>
       <c r="H2" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="I2" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>16.47508942095828</v>
+        <v>18.3503322552359</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.699999999999992</v>
       </c>
     </row>
   </sheetData>
